--- a/resource/eor/EORWritingScoreImportTemplate.xlsx
+++ b/resource/eor/EORWritingScoreImportTemplate.xlsx
@@ -19,15 +19,15 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Task 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Task 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Test Date</t>
@@ -40,60 +40,64 @@
   </si>
   <si>
     <t>TA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GRA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Task 1 band</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Task 2 band</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Region</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S-West Region</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyyy-mm-dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North Region</t>
+  </si>
+  <si>
+    <t>005774</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -209,27 +213,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,17 +541,17 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
     <col min="3" max="8" width="9" style="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
     <col min="10" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="14.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -599,7 +606,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>7</v>
@@ -616,17 +623,17 @@
       <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3">
-        <v>123456</v>
-      </c>
-      <c r="D3" s="3">
-        <v>666666</v>
+      <c r="B3" s="4">
+        <v>42760</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="11">
+        <v>990801</v>
       </c>
       <c r="E3" s="2">
         <v>6</v>
@@ -668,7 +675,7 @@
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:O2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -680,9 +687,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -693,9 +700,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>